--- a/aug_pc_result/2026_Feb_28_17_08_56_d_separation_kci_pc_gt_graph_20_1566428/aug_pc_raw_eval_res.xlsx
+++ b/aug_pc_result/2026_Feb_28_17_08_56_d_separation_kci_pc_gt_graph_20_1566428/aug_pc_raw_eval_res.xlsx
@@ -152,6 +152,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
